--- a/data/DSA_B4_2025_Offline.xlsx
+++ b/data/DSA_B4_2025_Offline.xlsx
@@ -8,16 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\trailnew\automated_reminder_system-main\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{873534C1-7C5A-4A84-A801-50FACD5E85E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0C0D969-2A97-411F-A13D-95677DF328C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{CEC51539-E2EA-4DFD-A717-63A4F8604A57}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{CEC51539-E2EA-4DFD-A717-63A4F8604A57}"/>
   </bookViews>
   <sheets>
     <sheet name="students" sheetId="3" r:id="rId1"/>
     <sheet name="schedule" sheetId="1" r:id="rId2"/>
     <sheet name="assignment" sheetId="2" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="181029" iterateDelta="1E-4"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -266,12 +266,6 @@
     <t>Offline</t>
   </si>
   <si>
-    <t>shilpa</t>
-  </si>
-  <si>
-    <t>shilpamurukan00@gmail.com</t>
-  </si>
-  <si>
     <t>B4</t>
   </si>
   <si>
@@ -279,6 +273,12 @@
   </si>
   <si>
     <t>ksanthoshkumar9847@gmail.com</t>
+  </si>
+  <si>
+    <t>sreya</t>
+  </si>
+  <si>
+    <t>sreyavenugopal96@gmail.com</t>
   </si>
 </sst>
 </file>
@@ -1076,8 +1076,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{267E4D9A-28BF-471C-AE7B-704991F52232}">
   <dimension ref="A1:H3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1117,10 +1117,10 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C2" s="22" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="D2">
         <v>2136457890</v>
@@ -1129,7 +1129,7 @@
         <v>77</v>
       </c>
       <c r="F2" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="G2">
         <v>2025</v>
@@ -1143,19 +1143,19 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="C3" s="22" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="D3">
-        <v>1.4503780161935099E+18</v>
+        <v>1.18198741654701E+18</v>
       </c>
       <c r="E3" t="s">
         <v>77</v>
       </c>
       <c r="F3" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="G3">
         <v>2025</v>
@@ -1168,7 +1168,7 @@
   <phoneticPr fontId="9" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="C2" r:id="rId1" xr:uid="{78733B23-2DDC-4C1C-A01B-92793E211145}"/>
-    <hyperlink ref="C3" r:id="rId2" xr:uid="{6F8BFE87-C954-456C-909A-E7DE243EC9C0}"/>
+    <hyperlink ref="C3" r:id="rId2" xr:uid="{E2828F4F-F70F-40EF-8049-E3C57DC47028}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
@@ -1182,7 +1182,7 @@
   <dimension ref="A1:D63"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1215,10 +1215,10 @@
         <v>0</v>
       </c>
       <c r="C2" s="16">
-        <v>46016</v>
+        <v>46024</v>
       </c>
       <c r="D2" s="20">
-        <v>0.85416666666666663</v>
+        <v>0.64583333333333337</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -1229,10 +1229,10 @@
         <v>1</v>
       </c>
       <c r="C3" s="16">
-        <v>46016</v>
+        <v>46024</v>
       </c>
       <c r="D3" s="20">
-        <v>0.96875</v>
+        <v>0.66666666666666663</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -1243,10 +1243,10 @@
         <v>2</v>
       </c>
       <c r="C4" s="16">
-        <v>46016</v>
+        <v>46024</v>
       </c>
       <c r="D4" s="20">
-        <v>0.97916666666666663</v>
+        <v>0.6875</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -1257,10 +1257,10 @@
         <v>3</v>
       </c>
       <c r="C5" s="16">
-        <v>46017</v>
+        <v>46024</v>
       </c>
       <c r="D5" s="20">
-        <v>0.375</v>
+        <v>0.70833333333333337</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -1271,10 +1271,10 @@
         <v>4</v>
       </c>
       <c r="C6" s="16">
-        <v>46018</v>
+        <v>46024</v>
       </c>
       <c r="D6" s="20">
-        <v>0.375</v>
+        <v>0.72916666666666663</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -1285,10 +1285,10 @@
         <v>5</v>
       </c>
       <c r="C7" s="16">
-        <v>46019</v>
+        <v>46024</v>
       </c>
       <c r="D7" s="20">
-        <v>0.375</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -1299,7 +1299,7 @@
         <v>6</v>
       </c>
       <c r="C8" s="16">
-        <v>46020</v>
+        <v>46025</v>
       </c>
       <c r="D8" s="20">
         <v>0.375</v>
@@ -1313,7 +1313,7 @@
         <v>7</v>
       </c>
       <c r="C9" s="16">
-        <v>46021</v>
+        <v>46026</v>
       </c>
       <c r="D9" s="20">
         <v>0.90625</v>
@@ -1327,7 +1327,7 @@
         <v>8</v>
       </c>
       <c r="C10" s="16">
-        <v>46022</v>
+        <v>46027</v>
       </c>
       <c r="D10" s="20">
         <v>0.90763888888888899</v>
@@ -1341,7 +1341,7 @@
         <v>9</v>
       </c>
       <c r="C11" s="16">
-        <v>46023</v>
+        <v>46028</v>
       </c>
       <c r="D11" s="20">
         <v>0.375</v>
@@ -1355,7 +1355,7 @@
         <v>10</v>
       </c>
       <c r="C12" s="16">
-        <v>46024</v>
+        <v>46029</v>
       </c>
       <c r="D12" s="20">
         <v>0.375</v>
@@ -1369,7 +1369,7 @@
         <v>11</v>
       </c>
       <c r="C13" s="16">
-        <v>46025</v>
+        <v>46030</v>
       </c>
       <c r="D13" s="20">
         <v>0.375</v>
@@ -1383,7 +1383,7 @@
         <v>12</v>
       </c>
       <c r="C14" s="16">
-        <v>46026</v>
+        <v>46031</v>
       </c>
       <c r="D14" s="20">
         <v>0.375</v>
@@ -1397,7 +1397,7 @@
         <v>13</v>
       </c>
       <c r="C15" s="16">
-        <v>46027</v>
+        <v>46032</v>
       </c>
       <c r="D15" s="20">
         <v>0.375</v>
@@ -1411,7 +1411,7 @@
         <v>14</v>
       </c>
       <c r="C16" s="16">
-        <v>46028</v>
+        <v>46033</v>
       </c>
       <c r="D16" s="20">
         <v>0.375</v>
@@ -1425,7 +1425,7 @@
         <v>15</v>
       </c>
       <c r="C17" s="16">
-        <v>46029</v>
+        <v>46034</v>
       </c>
       <c r="D17" s="20">
         <v>0.375</v>
@@ -1439,7 +1439,7 @@
         <v>16</v>
       </c>
       <c r="C18" s="16">
-        <v>46030</v>
+        <v>46035</v>
       </c>
       <c r="D18" s="20">
         <v>0.375</v>
@@ -1453,7 +1453,7 @@
         <v>17</v>
       </c>
       <c r="C19" s="16">
-        <v>46031</v>
+        <v>46036</v>
       </c>
       <c r="D19" s="20">
         <v>0.375</v>
@@ -1467,7 +1467,7 @@
         <v>18</v>
       </c>
       <c r="C20" s="16">
-        <v>46032</v>
+        <v>46037</v>
       </c>
       <c r="D20" s="20">
         <v>0.375</v>
@@ -1481,7 +1481,7 @@
         <v>19</v>
       </c>
       <c r="C21" s="16">
-        <v>46033</v>
+        <v>46038</v>
       </c>
       <c r="D21" s="20">
         <v>0.375</v>
@@ -1495,7 +1495,7 @@
         <v>20</v>
       </c>
       <c r="C22" s="16">
-        <v>46034</v>
+        <v>46039</v>
       </c>
       <c r="D22" s="20">
         <v>0.375</v>
@@ -1509,7 +1509,7 @@
         <v>21</v>
       </c>
       <c r="C23" s="16">
-        <v>46035</v>
+        <v>46040</v>
       </c>
       <c r="D23" s="20">
         <v>0.375</v>
@@ -1523,7 +1523,7 @@
         <v>22</v>
       </c>
       <c r="C24" s="16">
-        <v>46036</v>
+        <v>46041</v>
       </c>
       <c r="D24" s="20">
         <v>0.375</v>
@@ -1537,7 +1537,7 @@
         <v>23</v>
       </c>
       <c r="C25" s="16">
-        <v>46037</v>
+        <v>46042</v>
       </c>
       <c r="D25" s="20">
         <v>0.375</v>
@@ -1551,7 +1551,7 @@
         <v>24</v>
       </c>
       <c r="C26" s="16">
-        <v>46038</v>
+        <v>46043</v>
       </c>
       <c r="D26" s="20">
         <v>0.375</v>
@@ -1565,7 +1565,7 @@
         <v>25</v>
       </c>
       <c r="C27" s="16">
-        <v>46039</v>
+        <v>46044</v>
       </c>
       <c r="D27" s="20">
         <v>0.375</v>
@@ -1579,7 +1579,7 @@
         <v>26</v>
       </c>
       <c r="C28" s="16">
-        <v>46040</v>
+        <v>46045</v>
       </c>
       <c r="D28" s="20">
         <v>0.375</v>
@@ -1593,7 +1593,7 @@
         <v>27</v>
       </c>
       <c r="C29" s="16">
-        <v>46041</v>
+        <v>46046</v>
       </c>
       <c r="D29" s="20">
         <v>0.375</v>
@@ -1607,7 +1607,7 @@
         <v>28</v>
       </c>
       <c r="C30" s="16">
-        <v>46042</v>
+        <v>46047</v>
       </c>
       <c r="D30" s="20">
         <v>0.375</v>
@@ -1621,7 +1621,7 @@
         <v>29</v>
       </c>
       <c r="C31" s="16">
-        <v>46043</v>
+        <v>46048</v>
       </c>
       <c r="D31" s="20">
         <v>0.375</v>
@@ -1635,7 +1635,7 @@
         <v>30</v>
       </c>
       <c r="C32" s="16">
-        <v>46044</v>
+        <v>46049</v>
       </c>
       <c r="D32" s="20">
         <v>0.375</v>
@@ -1649,7 +1649,7 @@
         <v>31</v>
       </c>
       <c r="C33" s="16">
-        <v>46045</v>
+        <v>46050</v>
       </c>
       <c r="D33" s="20">
         <v>0.375</v>
@@ -1663,7 +1663,7 @@
         <v>32</v>
       </c>
       <c r="C34" s="16">
-        <v>46046</v>
+        <v>46051</v>
       </c>
       <c r="D34" s="20">
         <v>0.375</v>
@@ -1677,7 +1677,7 @@
         <v>33</v>
       </c>
       <c r="C35" s="16">
-        <v>46047</v>
+        <v>46052</v>
       </c>
       <c r="D35" s="20">
         <v>0.375</v>
@@ -1691,7 +1691,7 @@
         <v>34</v>
       </c>
       <c r="C36" s="16">
-        <v>46048</v>
+        <v>46053</v>
       </c>
       <c r="D36" s="20">
         <v>0.375</v>
@@ -1705,7 +1705,7 @@
         <v>35</v>
       </c>
       <c r="C37" s="16">
-        <v>46049</v>
+        <v>46054</v>
       </c>
       <c r="D37" s="20">
         <v>0.375</v>
@@ -1719,7 +1719,7 @@
         <v>36</v>
       </c>
       <c r="C38" s="16">
-        <v>46050</v>
+        <v>46055</v>
       </c>
       <c r="D38" s="20">
         <v>0.375</v>
@@ -1733,7 +1733,7 @@
         <v>37</v>
       </c>
       <c r="C39" s="16">
-        <v>46051</v>
+        <v>46056</v>
       </c>
       <c r="D39" s="20">
         <v>0.375</v>
@@ -1747,7 +1747,7 @@
         <v>38</v>
       </c>
       <c r="C40" s="16">
-        <v>46052</v>
+        <v>46057</v>
       </c>
       <c r="D40" s="20">
         <v>0.375</v>
@@ -1761,7 +1761,7 @@
         <v>39</v>
       </c>
       <c r="C41" s="16">
-        <v>46053</v>
+        <v>46058</v>
       </c>
       <c r="D41" s="20">
         <v>0.375</v>
@@ -1775,7 +1775,7 @@
         <v>40</v>
       </c>
       <c r="C42" s="16">
-        <v>46054</v>
+        <v>46059</v>
       </c>
       <c r="D42" s="20">
         <v>0.375</v>
@@ -1789,7 +1789,7 @@
         <v>41</v>
       </c>
       <c r="C43" s="16">
-        <v>46055</v>
+        <v>46060</v>
       </c>
       <c r="D43" s="20">
         <v>0.375</v>
@@ -1803,7 +1803,7 @@
         <v>42</v>
       </c>
       <c r="C44" s="16">
-        <v>46056</v>
+        <v>46061</v>
       </c>
       <c r="D44" s="20">
         <v>0.375</v>
@@ -1817,7 +1817,7 @@
         <v>43</v>
       </c>
       <c r="C45" s="16">
-        <v>46057</v>
+        <v>46062</v>
       </c>
       <c r="D45" s="20">
         <v>0.375</v>
@@ -1831,7 +1831,7 @@
         <v>44</v>
       </c>
       <c r="C46" s="16">
-        <v>46058</v>
+        <v>46063</v>
       </c>
       <c r="D46" s="20">
         <v>0.375</v>
@@ -1845,7 +1845,7 @@
         <v>45</v>
       </c>
       <c r="C47" s="16">
-        <v>46059</v>
+        <v>46064</v>
       </c>
       <c r="D47" s="20">
         <v>0.375</v>
@@ -1859,7 +1859,7 @@
         <v>46</v>
       </c>
       <c r="C48" s="16">
-        <v>46060</v>
+        <v>46065</v>
       </c>
       <c r="D48" s="20">
         <v>0.375</v>
@@ -1873,7 +1873,7 @@
         <v>47</v>
       </c>
       <c r="C49" s="16">
-        <v>46061</v>
+        <v>46066</v>
       </c>
       <c r="D49" s="20">
         <v>0.375</v>
@@ -1887,7 +1887,7 @@
         <v>48</v>
       </c>
       <c r="C50" s="16">
-        <v>46062</v>
+        <v>46067</v>
       </c>
       <c r="D50" s="20">
         <v>0.375</v>
@@ -1901,7 +1901,7 @@
         <v>49</v>
       </c>
       <c r="C51" s="16">
-        <v>46063</v>
+        <v>46068</v>
       </c>
       <c r="D51" s="20">
         <v>0.375</v>
@@ -1915,7 +1915,7 @@
         <v>50</v>
       </c>
       <c r="C52" s="16">
-        <v>46064</v>
+        <v>46069</v>
       </c>
       <c r="D52" s="20">
         <v>0.375</v>
@@ -1929,7 +1929,7 @@
         <v>51</v>
       </c>
       <c r="C53" s="16">
-        <v>46065</v>
+        <v>46070</v>
       </c>
       <c r="D53" s="20">
         <v>0.375</v>
@@ -1943,7 +1943,7 @@
         <v>52</v>
       </c>
       <c r="C54" s="16">
-        <v>46066</v>
+        <v>46071</v>
       </c>
       <c r="D54" s="20">
         <v>0.375</v>
@@ -1957,7 +1957,7 @@
         <v>53</v>
       </c>
       <c r="C55" s="16">
-        <v>46067</v>
+        <v>46072</v>
       </c>
       <c r="D55" s="20">
         <v>0.375</v>
@@ -1971,7 +1971,7 @@
         <v>54</v>
       </c>
       <c r="C56" s="16">
-        <v>46068</v>
+        <v>46073</v>
       </c>
       <c r="D56" s="20">
         <v>0.375</v>
@@ -1985,7 +1985,7 @@
         <v>55</v>
       </c>
       <c r="C57" s="16">
-        <v>46069</v>
+        <v>46074</v>
       </c>
       <c r="D57" s="20">
         <v>0.375</v>
@@ -1999,7 +1999,7 @@
         <v>56</v>
       </c>
       <c r="C58" s="16">
-        <v>46070</v>
+        <v>46075</v>
       </c>
       <c r="D58" s="20">
         <v>0.375</v>
@@ -2013,7 +2013,7 @@
         <v>57</v>
       </c>
       <c r="C59" s="16">
-        <v>46071</v>
+        <v>46076</v>
       </c>
       <c r="D59" s="20">
         <v>0.375</v>
@@ -2027,7 +2027,7 @@
         <v>58</v>
       </c>
       <c r="C60" s="16">
-        <v>46072</v>
+        <v>46077</v>
       </c>
       <c r="D60" s="20">
         <v>0.375</v>
@@ -2041,7 +2041,7 @@
         <v>67</v>
       </c>
       <c r="C61" s="16">
-        <v>46073</v>
+        <v>46078</v>
       </c>
       <c r="D61" s="20">
         <v>0.375</v>
@@ -2055,7 +2055,7 @@
         <v>59</v>
       </c>
       <c r="C62" s="16">
-        <v>46074</v>
+        <v>46079</v>
       </c>
       <c r="D62" s="20">
         <v>0.375</v>
@@ -2069,7 +2069,7 @@
         <v>60</v>
       </c>
       <c r="C63" s="16">
-        <v>46075</v>
+        <v>46080</v>
       </c>
       <c r="D63" s="20">
         <v>0.375</v>
@@ -2088,8 +2088,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0870CC8F-E80F-4444-8D9B-C0188C2F0EE3}">
   <dimension ref="A1:C11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:C11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H17" sqref="H17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2118,7 +2118,7 @@
         <v>16</v>
       </c>
       <c r="C2" s="16">
-        <v>46016</v>
+        <v>46023</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -2129,7 +2129,7 @@
         <v>19</v>
       </c>
       <c r="C3" s="16">
-        <v>46017</v>
+        <v>46024</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -2140,7 +2140,7 @@
         <v>24</v>
       </c>
       <c r="C4" s="16">
-        <v>46018</v>
+        <v>46025</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -2151,7 +2151,7 @@
         <v>28</v>
       </c>
       <c r="C5" s="16">
-        <v>46019</v>
+        <v>46026</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -2162,7 +2162,7 @@
         <v>30</v>
       </c>
       <c r="C6" s="16">
-        <v>46020</v>
+        <v>46027</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -2173,7 +2173,7 @@
         <v>37</v>
       </c>
       <c r="C7" s="16">
-        <v>46021</v>
+        <v>46028</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -2184,7 +2184,7 @@
         <v>40</v>
       </c>
       <c r="C8" s="16">
-        <v>46022</v>
+        <v>46029</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -2195,7 +2195,7 @@
         <v>44</v>
       </c>
       <c r="C9" s="16">
-        <v>46023</v>
+        <v>46030</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -2206,7 +2206,7 @@
         <v>48</v>
       </c>
       <c r="C10" s="16">
-        <v>46024</v>
+        <v>46031</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -2217,7 +2217,7 @@
         <v>67</v>
       </c>
       <c r="C11" s="16">
-        <v>46025</v>
+        <v>46032</v>
       </c>
     </row>
   </sheetData>
